--- a/DB Specification/ENCLICK_테이블 명세서_PRODUCT_DETAIL.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PRODUCT_DETAIL.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Desktop\ENCLICK 명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ENSSEL\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -25,21 +25,18 @@
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품 상세' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL' </x:t>
   </x:si>
   <x:si>
+    <x:t>CREATE TABLE dbo.PRODUCT_DETAIL (</x:t>
+  </x:si>
+  <x:si>
     <x:t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">   INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
   </x:si>
   <x:si>
-    <x:t>CREATE TABLE +B15dbo.PRODUCT_DETAIL (</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL', @level2type=N'COLUMN',@level2name=N'REGI_DT' </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL', @level2type=N'COLUMN',@level2name=N'PROD_ID' </x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'소개글' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL', @level2type=N'COLUMN',@level2name=N'INTR' </x:t>
   </x:si>
   <x:si>
@@ -49,28 +46,118 @@
     <x:t>SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명", COL_NAME(fc.parent_object_id, fc.parent_column_id) "컬럼명"</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALTER TABLE 테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.11.15 / ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORDER BY f.name;</x:t>
+    <x:t>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.PRODUCT_DETAIL') AND type in (N'U'))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소개글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>END</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnClick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENCLICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDA_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXPLAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GROUP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약조건 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOMAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGI_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROD_CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>) WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</x:t>
   </x:si>
   <x:si>
     <x:t>WHERE OBJECT_NAME (f.referenced_object_id) = 'PRODUCT_DETAIL'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.PRODUCT_DETAIL') AND type in (N'U'))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>) WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</x:t>
   </x:si>
   <x:si>
     <x:t>FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
@@ -114,208 +201,118 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">   FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   WHERE OBJECT_NAME (f.referenced_object_id) = 'TEST'</x:t>
+  </x:si>
+  <x:si>
     <x:t>※ 복합키를 외래키로 참조할 경우 복합키를 모두 하나의 외래키 제약조건에 같이 명시해야 합니다</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   WHERE OBJECT_NAME (f.referenced_object_id) = 'TEST'</x:t>
-  </x:si>
-  <x:si>
     <x:t>CONSTRAINT PK_PRODUCT_DETAIL PRIMARY KEY CLUSTERED (</x:t>
   </x:si>
   <x:si>
+    <x:t>TABLE COMMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPEN cursor1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOGICAL NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE / VERSION</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ALTER TABLE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCT_DETAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ADD CONSTRAINT </x:t>
+  </x:si>
+  <x:si>
+    <x:t>) ON [PRIMARY]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOREIGN KEY (</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PHYSICAL NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(3000)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTER TABLE 테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORDER BY f.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.11.15 / ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COLUMN NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 상세 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALLOW NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USE ENCLICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TABLE NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 제약조건 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECOMMEND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WRITTEN BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFERENCES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키 제약조건 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATABASE</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">   GROUP BY f.name, OBJECT_NAME(f.parent_object_id)</x:t>
   </x:si>
   <x:si>
-    <x:t>TABLE COMMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCT_DETAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ADD CONSTRAINT </x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOREIGN KEY (</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE / VERSION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>) ON [PRIMARY]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PHYSICAL NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPEN cursor1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ALTER TABLE </x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOGICAL NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(3000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALLOW NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COLUMN NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TABLE NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 상세 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATABASE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REFERENCES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USE ENCLICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키 제약조건 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECOMMEND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 제약조건 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WRITTEN BY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약조건 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENCLICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EXPLAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnClick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UPDA_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOMAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REGI_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DESC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INTR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROD_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GROUP</x:t>
+    <x:t xml:space="preserve">INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명"</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소개글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>END</x:t>
-  </x:si>
-  <x:si>
-    <x:t>);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>)</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(</x:t>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL', @level2type=N'COLUMN',@level2name=N'PROD_CD' </x:t>
   </x:si>
   <x:si>
     <x:t>DECLARE @name varchar(100)</x:t>
@@ -324,18 +321,18 @@
     <x:t xml:space="preserve">FROM sys.foreign_keys AS f </x:t>
   </x:si>
   <x:si>
+    <x:t>WHILE(@@fetch_status = 0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK_0_TO_PRODUCT_DETAIL_1</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">   DROP CONSTRAINT @name</x:t>
   </x:si>
   <x:si>
-    <x:t>FK_0_TO_PRODUCT_DETAIL_1</x:t>
-  </x:si>
-  <x:si>
     <x:t>DECLARE cursor1 CURSOR FOR</x:t>
   </x:si>
   <x:si>
-    <x:t>WHILE(@@fetch_status = 0)</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">   FROM sys.foreign_keys AS f </x:t>
   </x:si>
   <x:si>
@@ -348,13 +345,16 @@
     <x:t>FK__TO_PRODUCT_DETAIL_1</x:t>
   </x:si>
   <x:si>
+    <x:t>, @table varchar(100)</x:t>
+  </x:si>
+  <x:si>
     <x:t>테이블 제약조건 삭제 자동문(미완성)</x:t>
   </x:si>
   <x:si>
-    <x:t>, @table varchar(100)</x:t>
-  </x:si>
-  <x:si>
     <x:t>DROP CONSTRAINT 제약조건명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1623,8 +1623,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:N49"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A31" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C51" activeCellId="0" sqref="B45:C51"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G11" activeCellId="0" sqref="G11:G11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="11.949999999999999"/>
@@ -1647,7 +1647,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11" ht="24" customHeight="1">
       <x:c r="A1" s="40" t="s">
-        <x:v>49</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B1" s="40"/>
       <x:c r="C1" s="40"/>
@@ -1662,13 +1662,13 @@
     </x:row>
     <x:row r="2" spans="1:11" ht="15" customHeight="1">
       <x:c r="A2" s="41" t="s">
-        <x:v>63</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>55</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="44"/>
       <x:c r="E2" s="44"/>
@@ -1677,19 +1677,19 @@
       <x:c r="H2" s="44"/>
       <x:c r="I2" s="45"/>
       <x:c r="J2" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K2" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="15" customHeight="1">
       <x:c r="A3" s="41"/>
       <x:c r="B3" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C3" s="43" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D3" s="44"/>
       <x:c r="E3" s="44"/>
@@ -1698,22 +1698,22 @@
       <x:c r="H3" s="44"/>
       <x:c r="I3" s="45"/>
       <x:c r="J3" s="20" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K3" s="20" t="s">
-        <x:v>84</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="15" customHeight="1">
       <x:c r="A4" s="41"/>
       <x:c r="B4" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C4" s="43" t="s">
-        <x:v>24</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D4" s="44"/>
       <x:c r="E4" s="44"/>
@@ -1722,22 +1722,22 @@
       <x:c r="H4" s="44"/>
       <x:c r="I4" s="45"/>
       <x:c r="J4" s="20" t="s">
-        <x:v>67</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K4" s="20" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="15" customHeight="1">
       <x:c r="A5" s="41"/>
       <x:c r="B5" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="43" t="s">
-        <x:v>61</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D5" s="44"/>
       <x:c r="E5" s="44"/>
@@ -1748,16 +1748,16 @@
       <x:c r="J5" s="19"/>
       <x:c r="K5" s="20"/>
       <x:c r="N5" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="15" customHeight="1">
       <x:c r="A6" s="41"/>
       <x:c r="B6" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C6" s="42" t="s">
-        <x:v>39</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D6" s="42"/>
       <x:c r="E6" s="42"/>
@@ -1768,7 +1768,7 @@
       <x:c r="J6" s="42"/>
       <x:c r="K6" s="42"/>
       <x:c r="N6" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14">
@@ -1776,42 +1776,42 @@
       <x:c r="B7" s="1"/>
       <x:c r="C7" s="18"/>
       <x:c r="N7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A8" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C8" s="15" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D8" s="15" t="s">
-        <x:v>35</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H8" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K8" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M8" s="2"/>
       <x:c r="N8" s="2" t="str">
@@ -1826,7 +1826,7 @@
         <x:v>USE ENCLICK</x:v>
       </x:c>
       <x:c r="N9" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -1843,13 +1843,13 @@
         <x:v>DROP TABLE dbo.PRODUCT_DETAIL</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="A12" s="14"/>
       <x:c r="N12" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14">
@@ -1859,14 +1859,14 @@
         <x:v>USE ENCLICK</x:v>
       </x:c>
       <x:c r="N13" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="14"/>
       <x:c r="B14" s="2" t="str">
-        <x:f>"CREATE TABLE +B15dbo."&amp;C4&amp;" ("</x:f>
-        <x:v>CREATE TABLE +B15dbo.PRODUCT_DETAIL (</x:v>
+        <x:f>"CREATE TABLE dbo."&amp;C4&amp;" ("</x:f>
+        <x:v>CREATE TABLE dbo.PRODUCT_DETAIL (</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14">
@@ -1874,25 +1874,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E15" s="3"/>
       <x:c r="F15" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H15" s="9"/>
       <x:c r="I15" s="9"/>
       <x:c r="J15" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K15" s="13"/>
       <x:c r="M15" s="38" t="s">
@@ -1905,21 +1905,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D16" s="3"/>
       <x:c r="E16" s="3"/>
       <x:c r="F16" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G16" s="9"/>
       <x:c r="H16" s="9"/>
       <x:c r="I16" s="9"/>
       <x:c r="J16" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K16" s="13"/>
       <x:c r="M16" s="38"/>
@@ -1932,26 +1932,26 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G17" s="9"/>
       <x:c r="H17" s="9"/>
       <x:c r="I17" s="9"/>
       <x:c r="J17" s="13" t="s">
-        <x:v>73</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K17" s="13"/>
       <x:c r="M17" s="38"/>
       <x:c r="N17" s="38" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14">
@@ -1959,26 +1959,26 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D18" s="3"/>
       <x:c r="E18" s="3"/>
       <x:c r="F18" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G18" s="9"/>
       <x:c r="H18" s="9"/>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K18" s="13"/>
       <x:c r="M18" s="38"/>
       <x:c r="N18" s="38" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14">
@@ -1995,7 +1995,7 @@
       <x:c r="K19" s="13"/>
       <x:c r="M19" s="38"/>
       <x:c r="N19" s="38" t="s">
-        <x:v>9</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="14.25" customHeight="1">
@@ -2012,7 +2012,7 @@
       <x:c r="K20" s="13"/>
       <x:c r="M20" s="38"/>
       <x:c r="N20" s="38" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="14.25" customHeight="1">
@@ -2029,7 +2029,7 @@
       <x:c r="K21" s="13"/>
       <x:c r="M21" s="38"/>
       <x:c r="N21" s="38" t="s">
-        <x:v>20</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="14.25" customHeight="1">
@@ -2046,7 +2046,7 @@
       <x:c r="K22" s="13"/>
       <x:c r="M22" s="38"/>
       <x:c r="N22" s="38" t="s">
-        <x:v>22</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="14.25" customHeight="1">
@@ -2078,7 +2078,7 @@
       <x:c r="K24" s="10"/>
       <x:c r="M24" s="38"/>
       <x:c r="N24" s="38" t="s">
-        <x:v>30</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="14.25" customHeight="1">
@@ -2110,7 +2110,7 @@
       <x:c r="K26" s="13"/>
       <x:c r="M26" s="38"/>
       <x:c r="N26" s="38" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="14.25" customHeight="1">
@@ -2127,7 +2127,7 @@
       <x:c r="K27" s="12"/>
       <x:c r="M27" s="38"/>
       <x:c r="N27" s="38" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="14.25" customHeight="1">
@@ -2159,7 +2159,7 @@
       <x:c r="K29" s="13"/>
       <x:c r="M29" s="38"/>
       <x:c r="N29" s="38" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="10:14" ht="14.25" customHeight="1">
@@ -2175,15 +2175,15 @@
       <x:c r="J31" s="4"/>
       <x:c r="M31" s="38"/>
       <x:c r="N31" s="38" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="3:14" ht="14.25" customHeight="1">
       <x:c r="C32" s="23" t="s">
-        <x:v>65</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E32" s="2" t="str">
         <x:f>IF(C33&lt;&gt;"",",","")</x:f>
@@ -2192,7 +2192,7 @@
       <x:c r="J32" s="4"/>
       <x:c r="M32" s="38"/>
       <x:c r="N32" s="38" t="s">
-        <x:v>53</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="3:14" ht="14.25" customHeight="1">
@@ -2200,7 +2200,7 @@
       <x:c r="J33" s="4"/>
       <x:c r="M33" s="38"/>
       <x:c r="N33" s="39" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="4:14" ht="14.25" customHeight="1">
@@ -2215,7 +2215,7 @@
       <x:c r="J34" s="4"/>
       <x:c r="M34" s="38"/>
       <x:c r="N34" s="39" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="4:14" ht="14.25" customHeight="1">
@@ -2230,22 +2230,22 @@
       <x:c r="J35" s="4"/>
       <x:c r="M35" s="38"/>
       <x:c r="N35" s="38" t="s">
-        <x:v>10</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:14" ht="14.25" customHeight="1">
       <x:c r="B36" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J36" s="4"/>
       <x:c r="M36" s="38"/>
       <x:c r="N36" s="38" t="s">
-        <x:v>75</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B37" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J37" s="4"/>
     </x:row>
@@ -2265,7 +2265,7 @@
     <x:row r="41" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B41" s="2" t="str">
         <x:f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J15&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B15&amp;"' "</x:f>
-        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL', @level2type=N'COLUMN',@level2name=N'PROD_ID' </x:v>
+        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PRODUCT_DETAIL', @level2type=N'COLUMN',@level2name=N'PROD_CD' </x:v>
       </x:c>
       <x:c r="J41" s="4"/>
     </x:row>
@@ -2349,7 +2349,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27.75" customHeight="1">
       <x:c r="A1" s="46" t="s">
-        <x:v>43</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B1" s="46"/>
       <x:c r="C1" s="46"/>
@@ -2359,10 +2359,10 @@
     </x:row>
     <x:row r="2" spans="1:6" ht="15" customHeight="1">
       <x:c r="A2" s="41" t="s">
-        <x:v>63</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C2" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$2</x:f>
@@ -2370,7 +2370,7 @@
       </x:c>
       <x:c r="D2" s="47"/>
       <x:c r="E2" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F2" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$2</x:f>
@@ -2380,7 +2380,7 @@
     <x:row r="3" spans="1:6" ht="15" customHeight="1">
       <x:c r="A3" s="41"/>
       <x:c r="B3" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C3" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$3</x:f>
@@ -2388,7 +2388,7 @@
       </x:c>
       <x:c r="D3" s="47"/>
       <x:c r="E3" s="20" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F3" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$3</x:f>
@@ -2398,7 +2398,7 @@
     <x:row r="4" spans="1:6" ht="15" customHeight="1">
       <x:c r="A4" s="41"/>
       <x:c r="B4" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C4" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
@@ -2406,7 +2406,7 @@
       </x:c>
       <x:c r="D4" s="47"/>
       <x:c r="E4" s="20" t="s">
-        <x:v>67</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F4" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$4</x:f>
@@ -2416,7 +2416,7 @@
     <x:row r="5" spans="1:6" ht="15" customHeight="1">
       <x:c r="A5" s="41"/>
       <x:c r="B5" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$5</x:f>
@@ -2429,7 +2429,7 @@
     <x:row r="6" spans="1:6" ht="15" customHeight="1">
       <x:c r="A6" s="41"/>
       <x:c r="B6" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C6" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$6</x:f>
@@ -2441,30 +2441,30 @@
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="19.5" customHeight="1">
       <x:c r="A8" s="24" t="s">
-        <x:v>77</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>29</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C8" s="24" t="s">
-        <x:v>58</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="34" t="s">
-        <x:v>36</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2513,24 +2513,24 @@
     </x:row>
     <x:row r="17" spans="2:8" ht="12.75" customHeight="1">
       <x:c r="B17" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C17" s="27" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>PRODUCT_DETAIL</x:v>
       </x:c>
       <x:c r="D17" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E17" s="36" t="str">
         <x:f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</x:f>
         <x:v>FK__TO_PRODUCT_DETAIL_1</x:v>
       </x:c>
       <x:c r="F17" s="28" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:6" ht="12.75" customHeight="1">
@@ -2547,20 +2547,20 @@
     </x:row>
     <x:row r="19" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B19" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F19" s="30"/>
     </x:row>
     <x:row r="20" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B20" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="25">
         <x:f>C9</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F20" s="30"/>
     </x:row>
@@ -2578,7 +2578,7 @@
     </x:row>
     <x:row r="22" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B22" s="31" t="s">
-        <x:v>76</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C22" s="32"/>
       <x:c r="D22" s="32"/>
@@ -2587,24 +2587,24 @@
     </x:row>
     <x:row r="24" spans="2:8">
       <x:c r="B24" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C24" s="27" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>PRODUCT_DETAIL</x:v>
       </x:c>
       <x:c r="D24" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E24" s="36" t="str">
         <x:f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</x:f>
         <x:v>FK_0_TO_PRODUCT_DETAIL_1</x:v>
       </x:c>
       <x:c r="F24" s="28" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H24" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:6">
@@ -2633,20 +2633,20 @@
     </x:row>
     <x:row r="27" spans="2:6">
       <x:c r="B27" s="29" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="30"/>
     </x:row>
     <x:row r="28" spans="2:6">
       <x:c r="B28" s="29" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C28" s="25">
         <x:f>C10</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F28" s="30"/>
     </x:row>
@@ -2676,7 +2676,7 @@
     </x:row>
     <x:row r="31" spans="2:6">
       <x:c r="B31" s="31" t="s">
-        <x:v>76</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C31" s="32"/>
       <x:c r="D31" s="32"/>
@@ -2685,18 +2685,18 @@
     </x:row>
     <x:row r="34" spans="2:6">
       <x:c r="B34" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C34" s="2" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>PRODUCT_DETAIL</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="3:4">
@@ -2708,16 +2708,16 @@
     </x:row>
     <x:row r="36" spans="2:2">
       <x:c r="B36" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:4">
       <x:c r="B37" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="3:4">
@@ -2729,7 +2729,7 @@
     </x:row>
     <x:row r="39" spans="2:2">
       <x:c r="B39" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
